--- a/ejemploMBA.xlsx
+++ b/ejemploMBA.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390C56E2-0F2B-4B8A-A11D-304108832B89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A353CF44-8EFF-4742-AFDC-42F1722F1CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="familia" sheetId="1" r:id="rId1"/>
+    <sheet name="pilotos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>nombre</t>
   </si>
@@ -44,6 +45,39 @@
   </si>
   <si>
     <t>Solcito</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>escuderia</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>ferrari</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Verstappen</t>
+  </si>
+  <si>
+    <t>red bull</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>mercedes</t>
   </si>
 </sst>
 </file>
@@ -363,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,4 +450,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F33241B-54CB-449A-88CB-C7BC007CC7D0}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>